--- a/ConsecrationDemo/Configs/Tokens.xlsx
+++ b/ConsecrationDemo/Configs/Tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C059B8-8662-4E66-8722-7FD04CEAFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AABC2B-5921-4CA6-BC4F-8B57C2554B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="3908" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏波利利葡萄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信物名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,31 +55,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死光之匣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血祭时，额外受到1点伤害，同时血祭相邻技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屠夫之钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若此技能造成了击杀，刷新冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古尔丹之颅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间+3，此技能发动2次</t>
+    <t>精密的双指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错乱的思绪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠缠的原初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断裂的萌发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望的撕咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎的步伐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚的手掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识破的谎言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪的喧嚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐蔽的凝视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭时不消耗生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移距离+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动血祭时额外受到1点伤害，同时血祭前方1格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后恢复1点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后，使随机1格刷新冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使描述中的第一个数字+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得1个额外回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -428,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -461,10 +509,10 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -472,10 +520,10 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -483,10 +531,10 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -494,10 +542,76 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>20005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>20006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>20007</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>20008</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>20009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>20010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Tokens.xlsx
+++ b/ConsecrationDemo/Configs/Tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AABC2B-5921-4CA6-BC4F-8B57C2554B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E662AE-A395-4CB5-8397-0637BC67E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="3908" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23240" yWindow="4110" windowWidth="20360" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位移距离+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动血祭时额外受到1点伤害，同时血祭前方1格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>使用后获得1个额外回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退距离+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Tokens.xlsx
+++ b/ConsecrationDemo/Configs/Tokens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E662AE-A395-4CB5-8397-0637BC67E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E6129-B73A-447F-8A52-85E7AEF5C903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23240" yWindow="4110" windowWidth="20360" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18900" yWindow="2175" windowWidth="9465" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,18 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血祭时不消耗生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害范围+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主动血祭时额外受到1点伤害，同时血祭前方1格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +124,14 @@
   </si>
   <si>
     <t>击退距离+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动献祭时额外受到1点伤害，同时献祭前方1格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭时不消耗生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,18 +460,18 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" customWidth="1"/>
-    <col min="3" max="3" width="42.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20001</v>
       </c>
@@ -512,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20002</v>
       </c>
@@ -523,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20003</v>
       </c>
@@ -534,10 +534,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20004</v>
       </c>
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20005</v>
       </c>
@@ -556,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20006</v>
       </c>
@@ -567,10 +567,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20007</v>
       </c>
@@ -578,10 +578,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20008</v>
       </c>
@@ -589,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20009</v>
       </c>
@@ -600,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20010</v>
       </c>
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Tokens.xlsx
+++ b/ConsecrationDemo/Configs/Tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E6129-B73A-447F-8A52-85E7AEF5C903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D0A3DB-9C92-47A7-ACA0-68B52226B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18900" yWindow="2175" windowWidth="9465" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="4095" windowWidth="16260" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用后，使随机1格刷新冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使描述中的第一个数字+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,11 +123,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主动献祭时额外受到1点伤害，同时献祭前方1格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭时不消耗生命值</t>
+    <t>主动血祭时额外受到1点伤害，同时血祭前方1格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭时不消耗生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后使随机1格刷新冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Tokens.xlsx
+++ b/ConsecrationDemo/Configs/Tokens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D0A3DB-9C92-47A7-ACA0-68B52226B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DF149-6DFC-4FAC-AD5B-9B2BE9D0C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="4095" windowWidth="16260" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="24307" windowHeight="15059" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用后使随机1格刷新冷却时间</t>
+    <t>使用后使随机1个其他技能刷新冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,18 +460,18 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
+    <col min="3" max="3" width="42.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20001</v>
       </c>
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20002</v>
       </c>
@@ -526,7 +526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20003</v>
       </c>
@@ -537,7 +537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20004</v>
       </c>
@@ -548,7 +548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>20005</v>
       </c>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20006</v>
       </c>
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>20007</v>
       </c>
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>20008</v>
       </c>
@@ -592,7 +592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>20009</v>
       </c>
@@ -603,7 +603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>20010</v>
       </c>
